--- a/领菌/领菌计划表.xlsx
+++ b/领菌/领菌计划表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenzhihao\Desktop\筛菌\领菌\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAD9814-75BA-420C-AA04-666864FFFD6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731331E5-12EF-4D18-9DF2-C5678B7ED01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="3500" windowWidth="19200" windowHeight="11710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="404">
   <si>
     <t>领菌编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -966,6 +966,311 @@
       </rPr>
       <t>13=SXR13</t>
     </r>
+  </si>
+  <si>
+    <t>MRJSWX25L3</t>
+  </si>
+  <si>
+    <t>C57BLA52</t>
+  </si>
+  <si>
+    <t>QAHBZ5L1</t>
+  </si>
+  <si>
+    <t>HeN4M1</t>
+  </si>
+  <si>
+    <t>FYNLJ86L6</t>
+  </si>
+  <si>
+    <t>FYNLJ84L1</t>
+  </si>
+  <si>
+    <t>FYNLJ83L8</t>
+  </si>
+  <si>
+    <t>FYNLJ82L1</t>
+  </si>
+  <si>
+    <t>FYNLJ22M3重复编号</t>
+  </si>
+  <si>
+    <t>FXJWS25L9</t>
+  </si>
+  <si>
+    <t>FXJKS17M8</t>
+  </si>
+  <si>
+    <t>FXJCJ4M2</t>
+  </si>
+  <si>
+    <t>FWXBH12M3</t>
+  </si>
+  <si>
+    <t>FSH6M1</t>
+  </si>
+  <si>
+    <t>FSH40M1</t>
+  </si>
+  <si>
+    <t>FSH39M2</t>
+  </si>
+  <si>
+    <t>FSH36M2</t>
+  </si>
+  <si>
+    <t>FSH2M2</t>
+  </si>
+  <si>
+    <t>FSH14M1</t>
+  </si>
+  <si>
+    <t>FSCPS79L4</t>
+  </si>
+  <si>
+    <t>FSCPS76L4</t>
+  </si>
+  <si>
+    <t>FSCPS25M1</t>
+  </si>
+  <si>
+    <t>DYNDL8M31</t>
+  </si>
+  <si>
+    <t>DYNDL2M15</t>
+  </si>
+  <si>
+    <t>FNXYCHL79L1</t>
+  </si>
+  <si>
+    <t>FJLHD58L2</t>
+  </si>
+  <si>
+    <t>FHNXY71L8</t>
+  </si>
+  <si>
+    <t>FHNXY67L4</t>
+  </si>
+  <si>
+    <t>FHNXY64M3</t>
+  </si>
+  <si>
+    <t>FGSYC5L2</t>
+  </si>
+  <si>
+    <t>FGSYC2L3</t>
+  </si>
+  <si>
+    <t>FGDLZ10M5</t>
+  </si>
+  <si>
+    <t>FCQHC8L6</t>
+  </si>
+  <si>
+    <t>FCQHC27L4重复编号</t>
+  </si>
+  <si>
+    <t>FAHBZ3L1</t>
+  </si>
+  <si>
+    <t>DYNDL56M17</t>
+  </si>
+  <si>
+    <t>DYNDL42M2</t>
+  </si>
+  <si>
+    <t>FQHXN127L1</t>
+  </si>
+  <si>
+    <t>FNXYCHL81L1</t>
+  </si>
+  <si>
+    <t>GDLZ105</t>
+  </si>
+  <si>
+    <t>DYNDL216</t>
+  </si>
+  <si>
+    <t>DYNDL215</t>
+  </si>
+  <si>
+    <t>RC14</t>
+  </si>
+  <si>
+    <t>P84</t>
+  </si>
+  <si>
+    <t>FYNDL56</t>
+  </si>
+  <si>
+    <t>FYNDL13</t>
+  </si>
+  <si>
+    <t>FSDLZ8M22</t>
+  </si>
+  <si>
+    <t>FSDLZ14M21</t>
+  </si>
+  <si>
+    <t>FSDLZ13M1</t>
+  </si>
+  <si>
+    <t>FSDLZ12M1</t>
+  </si>
+  <si>
+    <t>第四批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗伊式-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗伊式-2</t>
+  </si>
+  <si>
+    <t>罗伊式-3</t>
+  </si>
+  <si>
+    <t>罗伊式-4</t>
+  </si>
+  <si>
+    <t>罗伊式-5</t>
+  </si>
+  <si>
+    <t>罗伊式-6</t>
+  </si>
+  <si>
+    <t>罗伊式-7</t>
+  </si>
+  <si>
+    <t>罗伊式-8</t>
+  </si>
+  <si>
+    <t>罗伊式-9</t>
+  </si>
+  <si>
+    <t>罗伊式-10</t>
+  </si>
+  <si>
+    <t>罗伊式-11</t>
+  </si>
+  <si>
+    <t>罗伊式-12</t>
+  </si>
+  <si>
+    <t>罗伊式-13</t>
+  </si>
+  <si>
+    <t>罗伊式-14</t>
+  </si>
+  <si>
+    <t>罗伊式-15</t>
+  </si>
+  <si>
+    <t>罗伊式-16</t>
+  </si>
+  <si>
+    <t>罗伊式-17</t>
+  </si>
+  <si>
+    <t>罗伊式-18</t>
+  </si>
+  <si>
+    <t>罗伊式-19</t>
+  </si>
+  <si>
+    <t>罗伊式-20</t>
+  </si>
+  <si>
+    <t>罗伊式-21</t>
+  </si>
+  <si>
+    <t>罗伊式-22</t>
+  </si>
+  <si>
+    <t>罗伊式-23</t>
+  </si>
+  <si>
+    <t>罗伊式-24</t>
+  </si>
+  <si>
+    <t>罗伊式-25</t>
+  </si>
+  <si>
+    <t>罗伊式-26</t>
+  </si>
+  <si>
+    <t>罗伊式-27</t>
+  </si>
+  <si>
+    <t>罗伊式-28</t>
+  </si>
+  <si>
+    <t>罗伊式-29</t>
+  </si>
+  <si>
+    <t>罗伊式-30</t>
+  </si>
+  <si>
+    <t>罗伊式-31</t>
+  </si>
+  <si>
+    <t>罗伊式-32</t>
+  </si>
+  <si>
+    <t>罗伊式-33</t>
+  </si>
+  <si>
+    <t>罗伊式-34</t>
+  </si>
+  <si>
+    <t>罗伊式-35</t>
+  </si>
+  <si>
+    <t>罗伊式-36</t>
+  </si>
+  <si>
+    <t>罗伊式-37</t>
+  </si>
+  <si>
+    <t>罗伊式-38</t>
+  </si>
+  <si>
+    <t>罗伊式-39</t>
+  </si>
+  <si>
+    <t>罗伊式-40</t>
+  </si>
+  <si>
+    <t>罗伊式-41</t>
+  </si>
+  <si>
+    <t>罗伊式-42</t>
+  </si>
+  <si>
+    <t>罗伊式-43</t>
+  </si>
+  <si>
+    <t>罗伊式-44</t>
+  </si>
+  <si>
+    <t>罗伊式-45</t>
+  </si>
+  <si>
+    <t>罗伊式-46</t>
+  </si>
+  <si>
+    <t>罗伊式-47</t>
+  </si>
+  <si>
+    <t>罗伊式-48</t>
+  </si>
+  <si>
+    <t>罗伊式-49</t>
+  </si>
+  <si>
+    <t>罗伊式-50</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1355,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1073,6 +1378,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1080,7 +1411,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1105,10 +1436,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1397,20 +1735,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C154"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H107" sqref="H107"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="2" max="2" width="10.08203125" customWidth="1"/>
-    <col min="3" max="3" width="10.58203125" customWidth="1"/>
+    <col min="3" max="3" width="9.4140625" customWidth="1"/>
+    <col min="4" max="4" width="5.75" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="9.58203125" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1420,15 +1762,29 @@
       <c r="C1" s="8" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E2" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1436,8 +1792,15 @@
         <v>52</v>
       </c>
       <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1445,8 +1808,15 @@
         <v>53</v>
       </c>
       <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1454,8 +1824,15 @@
         <v>54</v>
       </c>
       <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1463,8 +1840,15 @@
         <v>55</v>
       </c>
       <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1472,8 +1856,15 @@
         <v>56</v>
       </c>
       <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E7" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1481,8 +1872,15 @@
         <v>57</v>
       </c>
       <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -1490,8 +1888,15 @@
         <v>58</v>
       </c>
       <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1499,8 +1904,15 @@
         <v>59</v>
       </c>
       <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E10" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1508,8 +1920,15 @@
         <v>60</v>
       </c>
       <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E11" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -1517,8 +1936,17 @@
         <v>61</v>
       </c>
       <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E12" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -1526,8 +1954,15 @@
         <v>62</v>
       </c>
       <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E13" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -1535,8 +1970,15 @@
         <v>63</v>
       </c>
       <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E14" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
@@ -1544,8 +1986,15 @@
         <v>64</v>
       </c>
       <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E15" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -1553,8 +2002,15 @@
         <v>65</v>
       </c>
       <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E16" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
@@ -1562,8 +2018,15 @@
         <v>66</v>
       </c>
       <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E17" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
@@ -1571,8 +2034,15 @@
         <v>67</v>
       </c>
       <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E18" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
@@ -1580,8 +2050,15 @@
         <v>68</v>
       </c>
       <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E19" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
@@ -1589,8 +2066,15 @@
         <v>69</v>
       </c>
       <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E20" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
@@ -1598,8 +2082,15 @@
         <v>70</v>
       </c>
       <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E21" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
@@ -1607,8 +2098,15 @@
         <v>71</v>
       </c>
       <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E22" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>22</v>
       </c>
@@ -1616,8 +2114,15 @@
         <v>72</v>
       </c>
       <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E23" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>23</v>
       </c>
@@ -1625,8 +2130,15 @@
         <v>73</v>
       </c>
       <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E24" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
@@ -1634,8 +2146,15 @@
         <v>74</v>
       </c>
       <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E25" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -1643,8 +2162,15 @@
         <v>75</v>
       </c>
       <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E26" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -1652,8 +2178,15 @@
         <v>76</v>
       </c>
       <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E27" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -1661,8 +2194,15 @@
         <v>77</v>
       </c>
       <c r="C28" s="5"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E28" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -1670,8 +2210,15 @@
         <v>78</v>
       </c>
       <c r="C29" s="5"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E29" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -1679,8 +2226,15 @@
         <v>79</v>
       </c>
       <c r="C30" s="5"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E30" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -1688,8 +2242,15 @@
         <v>80</v>
       </c>
       <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E31" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
@@ -1697,8 +2258,15 @@
         <v>81</v>
       </c>
       <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E32" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -1706,8 +2274,15 @@
         <v>82</v>
       </c>
       <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E33" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -1715,8 +2290,15 @@
         <v>83</v>
       </c>
       <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E34" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -1724,8 +2306,15 @@
         <v>84</v>
       </c>
       <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E35" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -1733,8 +2322,15 @@
         <v>85</v>
       </c>
       <c r="C36" s="5"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E36" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -1742,8 +2338,15 @@
         <v>86</v>
       </c>
       <c r="C37" s="5"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E37" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
@@ -1751,8 +2354,15 @@
         <v>87</v>
       </c>
       <c r="C38" s="5"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E38" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -1760,8 +2370,15 @@
         <v>88</v>
       </c>
       <c r="C39" s="5"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E39" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
@@ -1769,8 +2386,15 @@
         <v>89</v>
       </c>
       <c r="C40" s="5"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E40" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
@@ -1778,8 +2402,15 @@
         <v>90</v>
       </c>
       <c r="C41" s="5"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E41" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
@@ -1787,8 +2418,15 @@
         <v>91</v>
       </c>
       <c r="C42" s="5"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E42" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
@@ -1796,8 +2434,15 @@
         <v>92</v>
       </c>
       <c r="C43" s="5"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E43" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
@@ -1805,8 +2450,15 @@
         <v>93</v>
       </c>
       <c r="C44" s="5"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E44" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -1814,8 +2466,15 @@
         <v>94</v>
       </c>
       <c r="C45" s="5"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E45" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
@@ -1823,8 +2482,15 @@
         <v>95</v>
       </c>
       <c r="C46" s="5"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E46" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
@@ -1832,8 +2498,15 @@
         <v>96</v>
       </c>
       <c r="C47" s="5"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E47" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
@@ -1841,8 +2514,15 @@
         <v>97</v>
       </c>
       <c r="C48" s="5"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E48" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
@@ -1850,8 +2530,15 @@
         <v>98</v>
       </c>
       <c r="C49" s="5"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E49" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
@@ -1859,8 +2546,15 @@
         <v>99</v>
       </c>
       <c r="C50" s="5"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E50" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
@@ -1869,7 +2563,7 @@
       </c>
       <c r="C51" s="5"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>51</v>
       </c>
@@ -1878,929 +2572,891 @@
       </c>
       <c r="C52" s="5"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="9" t="s">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B63" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C63" s="9" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55" s="5"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C56" s="5"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C57" s="5"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C58" s="5"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C59" s="5"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C60" s="5"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C61" s="5"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C62" s="5"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C63" s="5"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>112</v>
+      <c r="E63" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B64" s="5"/>
+      <c r="C64" s="12"/>
+      <c r="E64" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="s">
+        <v>203</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>123</v>
+        <v>252</v>
       </c>
       <c r="C65" s="5"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>113</v>
+      <c r="E65" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="G65" s="5"/>
+      <c r="H65" s="13"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>124</v>
+        <v>255</v>
       </c>
       <c r="C66" s="5"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
-        <v>126</v>
+      <c r="E66" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="G66" s="5"/>
+      <c r="H66" s="13"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="10" t="s">
+        <v>238</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>162</v>
+        <v>256</v>
       </c>
       <c r="C67" s="5"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>127</v>
+      <c r="E67" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="G67" s="5"/>
+      <c r="H67" s="13"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="10" t="s">
+        <v>232</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>164</v>
+        <v>254</v>
       </c>
       <c r="C68" s="5"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>128</v>
+      <c r="E68" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="G68" s="5"/>
+      <c r="H68" s="13"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="10" t="s">
+        <v>231</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>165</v>
+        <v>257</v>
       </c>
       <c r="C69" s="5"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
-        <v>129</v>
+      <c r="E69" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="G69" s="5"/>
+      <c r="H69" s="13"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="10" t="s">
+        <v>220</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C70" s="5"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
-        <v>130</v>
+      <c r="E70" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="G70" s="5"/>
+      <c r="H70" s="13"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="10" t="s">
+        <v>230</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>167</v>
+        <v>258</v>
       </c>
       <c r="C71" s="5"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
-        <v>131</v>
+      <c r="E71" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="G71" s="5"/>
+      <c r="H71" s="13"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="10" t="s">
+        <v>229</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>166</v>
+        <v>259</v>
       </c>
       <c r="C72" s="5"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
-        <v>132</v>
+      <c r="E72" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="G72" s="5"/>
+      <c r="H72" s="13"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="10" t="s">
+        <v>219</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>168</v>
+        <v>260</v>
       </c>
       <c r="C73" s="5"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
-        <v>133</v>
+      <c r="E73" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="G73" s="5"/>
+      <c r="H73" s="13"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>169</v>
+        <v>261</v>
       </c>
       <c r="C74" s="5"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
-        <v>134</v>
+      <c r="E74" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="G74" s="5"/>
+      <c r="H74" s="13"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="10" t="s">
+        <v>218</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>170</v>
+        <v>262</v>
       </c>
       <c r="C75" s="5"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
-        <v>135</v>
+      <c r="E75" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="G75" s="5"/>
+      <c r="H75" s="13"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="10" t="s">
+        <v>225</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>171</v>
+        <v>263</v>
       </c>
       <c r="C76" s="5"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
-        <v>136</v>
+      <c r="E76" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="G76" s="5"/>
+      <c r="H76" s="13"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="10" t="s">
+        <v>224</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>172</v>
+        <v>264</v>
       </c>
       <c r="C77" s="5"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
-        <v>137</v>
+      <c r="E77" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="G77" s="5"/>
+      <c r="H77" s="13"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="10" t="s">
+        <v>227</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>173</v>
+        <v>265</v>
       </c>
       <c r="C78" s="5"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
-        <v>138</v>
+      <c r="E78" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="G78" s="5"/>
+      <c r="H78" s="13"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="10" t="s">
+        <v>226</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>174</v>
+        <v>266</v>
       </c>
       <c r="C79" s="5"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
-        <v>139</v>
+      <c r="E79" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="G79" s="5"/>
+      <c r="H79" s="13"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="10" t="s">
+        <v>233</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>175</v>
+        <v>267</v>
       </c>
       <c r="C80" s="5"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
-        <v>140</v>
+      <c r="E80" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="G80" s="5"/>
+      <c r="H80" s="13"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="10" t="s">
+        <v>223</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>176</v>
+        <v>268</v>
       </c>
       <c r="C81" s="5"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="s">
-        <v>141</v>
+      <c r="E81" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="G81" s="5"/>
+      <c r="H81" s="13"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="10" t="s">
+        <v>222</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>177</v>
+        <v>269</v>
       </c>
       <c r="C82" s="5"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="3" t="s">
-        <v>142</v>
+      <c r="E82" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="G82" s="5"/>
+      <c r="H82" s="13"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="10" t="s">
+        <v>221</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>178</v>
+        <v>270</v>
       </c>
       <c r="C83" s="5"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="3" t="s">
-        <v>143</v>
+      <c r="E83" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="G83" s="5"/>
+      <c r="H83" s="13"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="10" t="s">
+        <v>234</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>179</v>
+        <v>271</v>
       </c>
       <c r="C84" s="5"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="3" t="s">
-        <v>144</v>
+      <c r="E84" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="G84" s="5"/>
+      <c r="H84" s="13"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="10" t="s">
+        <v>245</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>180</v>
+        <v>272</v>
       </c>
       <c r="C85" s="5"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="3" t="s">
-        <v>145</v>
+      <c r="E85" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="G85" s="5"/>
+      <c r="H85" s="13"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="10" t="s">
+        <v>244</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>181</v>
+        <v>273</v>
       </c>
       <c r="C86" s="5"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
-        <v>146</v>
+      <c r="E86" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="G86" s="5"/>
+      <c r="H86" s="13"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="10" t="s">
+        <v>242</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>182</v>
+        <v>274</v>
       </c>
       <c r="C87" s="5"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="3" t="s">
-        <v>147</v>
+      <c r="E87" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="G87" s="5"/>
+      <c r="H87" s="13"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="10" t="s">
+        <v>207</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>183</v>
+        <v>275</v>
       </c>
       <c r="C88" s="5"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="3" t="s">
-        <v>148</v>
+      <c r="E88" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="G88" s="5"/>
+      <c r="H88" s="13"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>184</v>
+        <v>276</v>
       </c>
       <c r="C89" s="5"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="3" t="s">
-        <v>149</v>
+      <c r="E89" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="G89" s="5"/>
+      <c r="H89" s="13"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="10" t="s">
+        <v>206</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>185</v>
+        <v>277</v>
       </c>
       <c r="C90" s="5"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="3" t="s">
-        <v>150</v>
+      <c r="E90" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="G90" s="5"/>
+      <c r="H90" s="13"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="10" t="s">
+        <v>213</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>186</v>
+        <v>278</v>
       </c>
       <c r="C91" s="5"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="3" t="s">
-        <v>151</v>
+      <c r="E91" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="G91" s="5"/>
+      <c r="H91" s="13"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="10" t="s">
+        <v>215</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>187</v>
+        <v>279</v>
       </c>
       <c r="C92" s="5"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="3" t="s">
-        <v>152</v>
+      <c r="E92" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="G92" s="5"/>
+      <c r="H92" s="13"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="10" t="s">
+        <v>217</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>188</v>
+        <v>280</v>
       </c>
       <c r="C93" s="5"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="3" t="s">
-        <v>153</v>
+      <c r="E93" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="G93" s="5"/>
+      <c r="H93" s="13"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="10" t="s">
+        <v>208</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>189</v>
+        <v>281</v>
       </c>
       <c r="C94" s="5"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="3" t="s">
-        <v>154</v>
+      <c r="E94" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="G94" s="5"/>
+      <c r="H94" s="13"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="10" t="s">
+        <v>214</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>190</v>
+        <v>282</v>
       </c>
       <c r="C95" s="5"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="3" t="s">
-        <v>155</v>
+      <c r="E95" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="G95" s="5"/>
+      <c r="H95" s="13"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="10" t="s">
+        <v>211</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>191</v>
+        <v>283</v>
       </c>
       <c r="C96" s="5"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="3" t="s">
-        <v>156</v>
+      <c r="E96" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="G96" s="5"/>
+      <c r="H96" s="13"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="10" t="s">
+        <v>205</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>192</v>
+        <v>284</v>
       </c>
       <c r="C97" s="5"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="3" t="s">
-        <v>157</v>
+      <c r="E97" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="G97" s="5"/>
+      <c r="H97" s="13"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>193</v>
+        <v>285</v>
       </c>
       <c r="C98" s="5"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="3" t="s">
-        <v>158</v>
+      <c r="E98" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="G98" s="5"/>
+      <c r="H98" s="13"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>194</v>
+        <v>286</v>
       </c>
       <c r="C99" s="5"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
-        <v>159</v>
+      <c r="E99" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="G99" s="5"/>
+      <c r="H99" s="13"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="10" t="s">
+        <v>210</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>195</v>
+        <v>287</v>
       </c>
       <c r="C100" s="5"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="3" t="s">
-        <v>160</v>
+      <c r="E100" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="G100" s="5"/>
+      <c r="H100" s="13"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="10" t="s">
+        <v>240</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>196</v>
+        <v>288</v>
       </c>
       <c r="C101" s="5"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="3" t="s">
-        <v>161</v>
+      <c r="E101" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="G101" s="5"/>
+      <c r="H101" s="13"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="10" t="s">
+        <v>251</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>197</v>
+        <v>289</v>
       </c>
       <c r="C102" s="5"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="B104" s="5"/>
+      <c r="E102" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="G102" s="5"/>
+      <c r="H102" s="13"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C103" s="5"/>
+      <c r="E103" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="G103" s="5"/>
+      <c r="H103" s="13"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>291</v>
+      </c>
       <c r="C104" s="5"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="B105" s="10" t="s">
-        <v>252</v>
+      <c r="E104" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="G104" s="5"/>
+      <c r="H104" s="13"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>292</v>
       </c>
       <c r="C105" s="5"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="B106" s="10" t="s">
-        <v>255</v>
+      <c r="E105" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="G105" s="5"/>
+      <c r="H105" s="13"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>293</v>
       </c>
       <c r="C106" s="5"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="B107" s="10" t="s">
-        <v>256</v>
+      <c r="E106" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="G106" s="5"/>
+      <c r="H106" s="13"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>294</v>
       </c>
       <c r="C107" s="5"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>254</v>
+      <c r="E107" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="G107" s="5"/>
+      <c r="H107" s="13"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>295</v>
       </c>
       <c r="C108" s="5"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="B109" s="10" t="s">
-        <v>257</v>
+      <c r="E108" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="G108" s="5"/>
+      <c r="H108" s="13"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>296</v>
       </c>
       <c r="C109" s="5"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="B110" s="10" t="s">
-        <v>253</v>
+      <c r="E109" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="G109" s="5"/>
+      <c r="H109" s="13"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>297</v>
       </c>
       <c r="C110" s="5"/>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="B111" s="10" t="s">
-        <v>258</v>
+      <c r="E110" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="G110" s="5"/>
+      <c r="H110" s="13"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>298</v>
       </c>
       <c r="C111" s="5"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>259</v>
+      <c r="E111" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="G111" s="5"/>
+      <c r="H111" s="13"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>299</v>
       </c>
       <c r="C112" s="5"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="B113" s="10" t="s">
-        <v>260</v>
+      <c r="E112" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="G112" s="5"/>
+      <c r="H112" s="13"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>300</v>
       </c>
       <c r="C113" s="5"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="B114" s="10" t="s">
-        <v>261</v>
+      <c r="E113" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="G113" s="5"/>
+      <c r="H113" s="13"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>301</v>
       </c>
       <c r="C114" s="5"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="B115" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C115" s="5"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="B116" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="C116" s="5"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="B117" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="C117" s="5"/>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="B118" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="C118" s="5"/>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="B119" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="C119" s="5"/>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="B120" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C120" s="5"/>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="C121" s="5"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="B122" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="C122" s="5"/>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="B123" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C123" s="5"/>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="B124" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="C124" s="5"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="B125" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C125" s="5"/>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="B126" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="C126" s="5"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="B127" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="C127" s="5"/>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="B128" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="C128" s="5"/>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="B129" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="C129" s="5"/>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="B130" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C130" s="5"/>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="B131" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="C131" s="5"/>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="B132" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="C132" s="5"/>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="B133" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="C133" s="5"/>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="B134" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="C134" s="5"/>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="B135" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="C135" s="5"/>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="B136" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="C136" s="5"/>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="B137" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="C137" s="5"/>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="C138" s="5"/>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="B139" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="C139" s="5"/>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="B140" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C140" s="5"/>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="B141" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="C141" s="5"/>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="B142" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="C142" s="5"/>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="B143" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="C143" s="5"/>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="B144" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="C144" s="5"/>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="B145" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="C145" s="5"/>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="B146" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="C146" s="5"/>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="B147" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="C147" s="5"/>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="B148" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="C148" s="5"/>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="B149" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="C149" s="5"/>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="B150" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="C150" s="5"/>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="B151" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="C151" s="5"/>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="B152" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="C152" s="5"/>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="B153" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="C153" s="5"/>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="B154" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="C154" s="5"/>
+      <c r="E114" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="G114" s="5"/>
+      <c r="H114" s="13"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A105:A154">
-    <sortCondition ref="A105:A154"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E65:E114">
+    <sortCondition ref="E65:E114"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
